--- a/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/bfo-core-ies-structural-matches.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">left_iri</t>
   </si>
@@ -46,10 +46,28 @@
     <t xml:space="preserve">right_axioms</t>
   </si>
   <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/BFO_0000027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ies.data.gov.uk/ontology/ies4#DispositionalClass</t>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/BFO_0000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R:only×3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubClassOf: ns1:BFO_0000003 | SubClassOf: ns1:BFO_0000117 only (ns1:BFO_0000015 OR ns1:BFO_0000035) | SubClassOf: ns1:BFO_0000132 only ns1:BFO_0000015 | SubClassOf: ns1:BFO_0000139 only ns1:BFO_0000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ies.data.gov.uk/ontology/ies4#Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R:only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubClassOf: ies:Element | SubClassOf: ns1:BFO_0000015 | SubClassOf: ns1:BFO_0000178 only (ns1:BFO_0000029 OR ns1:BFO_0000140)</t>
   </si>
 </sst>
 </file>
@@ -59,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +106,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,21 +157,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -354,56 +362,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="72.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://purl.obolibrary.org/obo/BFO_0000027"/>
-    <hyperlink ref="E2" r:id="rId2" location="DispositionalClass" display="http://ies.data.gov.uk/ontology/ies4#DispositionalClass"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
